--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>biasae</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id_mitra</t>
   </si>
@@ -35,13 +32,7 @@
     <t>posisi</t>
   </si>
   <si>
-    <t>kos  novi</t>
-  </si>
-  <si>
-    <t>data baru</t>
-  </si>
-  <si>
-    <t>data update</t>
+    <t>contoh</t>
   </si>
 </sst>
 </file>
@@ -359,20 +350,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -380,31 +371,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Documents\magang\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E7AFB7-5E7C-40B6-908A-72C51B995E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id_mitra</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>posisi</t>
   </si>
   <si>
-    <t>contoh</t>
+    <t>sobat_id</t>
+  </si>
+  <si>
+    <t>contoh999</t>
+  </si>
+  <si>
+    <t>tahun_mitra</t>
+  </si>
+  <si>
+    <t>S003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,29 +356,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Documents\magang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E7AFB7-5E7C-40B6-908A-72C51B995E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140C7A0-FC0F-4BBF-920C-3EE8DCA810EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>posisi</t>
   </si>
@@ -33,13 +33,49 @@
     <t>sobat_id</t>
   </si>
   <si>
-    <t>contoh999</t>
-  </si>
-  <si>
-    <t>tahun_mitra</t>
-  </si>
-  <si>
     <t>S003</t>
+  </si>
+  <si>
+    <t>tahun_masuk_mitra</t>
+  </si>
+  <si>
+    <t>tahun_berakhir_mitra</t>
+  </si>
+  <si>
+    <t>tgl_ikut_survei</t>
+  </si>
+  <si>
+    <t>catatan</t>
+  </si>
+  <si>
+    <t>nilai</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>rate_honor</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>05-11-2020</t>
+  </si>
+  <si>
+    <t>05-01-2021</t>
+  </si>
+  <si>
+    <t>05-12-2020</t>
+  </si>
+  <si>
+    <t>contoh</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -75,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,34 +394,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>2025</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140C7A0-FC0F-4BBF-920C-3EE8DCA810EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02486D14-70A1-439E-8378-B836A135CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>posisi</t>
   </si>
@@ -33,15 +33,9 @@
     <t>sobat_id</t>
   </si>
   <si>
-    <t>S003</t>
-  </si>
-  <si>
     <t>tahun_masuk_mitra</t>
   </si>
   <si>
-    <t>tahun_berakhir_mitra</t>
-  </si>
-  <si>
     <t>tgl_ikut_survei</t>
   </si>
   <si>
@@ -63,19 +57,22 @@
     <t>5</t>
   </si>
   <si>
-    <t>05-11-2020</t>
-  </si>
-  <si>
-    <t>05-01-2021</t>
-  </si>
-  <si>
-    <t>05-12-2020</t>
-  </si>
-  <si>
     <t>contoh</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>16-07-2025</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>15-03-2018</t>
   </si>
 </sst>
 </file>
@@ -394,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +404,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -415,54 +412,48 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02486D14-70A1-439E-8378-B836A135CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B7EFE-A3AE-4473-9453-37A78E658A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>sobat_id</t>
   </si>
   <si>
-    <t>tahun_masuk_mitra</t>
-  </si>
-  <si>
     <t>tgl_ikut_survei</t>
   </si>
   <si>
@@ -69,10 +66,13 @@
     <t>16-07-2025</t>
   </si>
   <si>
-    <t>S001</t>
-  </si>
-  <si>
     <t>15-03-2018</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>tgl_mitra_diterima</t>
   </si>
 </sst>
 </file>
@@ -88,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +134,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D2D6F2-E293-BCA7-870D-51D0886E5B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="53340"/>
+          <a:ext cx="1645920" cy="1836420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" b="1"/>
+            <a:t>(Boleh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" b="1" baseline="0"/>
+            <a:t> di isi boleh tidak)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="id-ID" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" b="1" baseline="0"/>
+            <a:t>tgl_ikut_survei jika tidak di isi maka akan otomatis berisi tanggal saat hari ini</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450" algn="l">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" b="1" baseline="0"/>
+            <a:t>catatan dan nilai sebaiknya di isi jika status survei sudah dikerjakan</a:t>
+          </a:r>
+          <a:endParaRPr lang="id-ID" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,14 +507,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -411,23 +525,23 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -435,28 +549,29 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIZKY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B7EFE-A3AE-4473-9453-37A78E658A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>posisi</t>
   </si>
@@ -60,25 +59,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>16-07-2025</t>
-  </si>
-  <si>
-    <t>15-03-2018</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>tgl_mitra_diterima</t>
+  </si>
+  <si>
+    <t>0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,11 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,15 +139,15 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D2D6F2-E293-BCA7-870D-51D0886E5B55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45D2D6F2-E293-BCA7-870D-51D0886E5B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -164,8 +155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="53340"/>
-          <a:ext cx="1645920" cy="1836420"/>
+          <a:off x="6531610" y="53340"/>
+          <a:ext cx="1671320" cy="3293110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -220,8 +211,13 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="id-ID" sz="1100" b="1" baseline="0"/>
-            <a:t>tgl_ikut_survei jika tidak di isi maka akan otomatis berisi tanggal saat hari ini</a:t>
+            <a:t>tgl_ikut_survei jika tidak di isi maka akan otomatis berisi tanggal </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>dimulainya survei</a:t>
+          </a:r>
+          <a:endParaRPr lang="id-ID" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="171450" indent="-171450" algn="l">
@@ -503,22 +499,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,18 +534,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -563,12 +559,10 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="4">
+        <v>43174</v>
+      </c>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>posisi</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>0001</t>
+  </si>
+  <si>
+    <t>15-03-2018</t>
+  </si>
+  <si>
+    <t>11-11-1991</t>
   </si>
 </sst>
 </file>
@@ -104,12 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,7 +220,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>dimulainya survei</a:t>
+            <a:t>hari ini</a:t>
           </a:r>
           <a:endParaRPr lang="id-ID" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -503,7 +508,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,10 +564,12 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4">
-        <v>43174</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mag\project mitra\MitraBPS\ProjekMitraBPS\kito\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rizky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7B570-5497-4FEC-A7AB-9B11CD122BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>posisi</t>
   </si>
@@ -42,12 +52,6 @@
   </si>
   <si>
     <t>vol</t>
-  </si>
-  <si>
-    <t>rate_honor</t>
-  </si>
-  <si>
-    <t>100000</t>
   </si>
   <si>
     <t>5</t>
@@ -74,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,11 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,7 +155,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45D2D6F2-E293-BCA7-870D-51D0886E5B55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D2D6F2-E293-BCA7-870D-51D0886E5B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,71 +507,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rizky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7B570-5497-4FEC-A7AB-9B11CD122BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E06E03-FB5B-4497-B12F-8E6C712F2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>posisi</t>
   </si>
@@ -42,9 +42,6 @@
     <t>sobat_id</t>
   </si>
   <si>
-    <t>tgl_ikut_survei</t>
-  </si>
-  <si>
     <t>catatan</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>15-03-2018</t>
-  </si>
-  <si>
-    <t>11-11-1991</t>
   </si>
 </sst>
 </file>
@@ -147,8 +141,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -163,8 +157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6531610" y="53340"/>
-          <a:ext cx="1671320" cy="3293110"/>
+          <a:off x="6400800" y="53340"/>
+          <a:ext cx="1645920" cy="1722120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -219,22 +213,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="id-ID" sz="1100" b="1" baseline="0"/>
-            <a:t>tgl_ikut_survei jika tidak di isi maka akan otomatis berisi tanggal </a:t>
+            <a:t>catatan dan nilai sebaiknya di isi jika status survei sudah dikerjakan</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>hari ini</a:t>
-          </a:r>
-          <a:endParaRPr lang="id-ID" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450" algn="l">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100" b="1" baseline="0"/>
-            <a:t>catatan dan nilai sebaiknya di isi jika status survei sudah dikerjakan</a:t>
+            <a:t>, agar tidak usah mengisi manual satu satu</a:t>
           </a:r>
           <a:endParaRPr lang="id-ID" sz="1100" b="1"/>
         </a:p>
@@ -508,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +505,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,42 +513,36 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/kito/public/addMitra2Survey.xlsx
+++ b/kito/public/addMitra2Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rizky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E06E03-FB5B-4497-B12F-8E6C712F2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ECAA74-B0EA-4C08-818D-92001B5C2706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>posisi</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>15-03-2018</t>
+  </si>
+  <si>
+    <t>rate_honor</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +508,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,17 +518,20 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -536,12 +542,15 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
